--- a/data/raw/Answers.xlsx
+++ b/data/raw/Answers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\juand\source\repos\free-to-play-r\data\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C838D4-F25F-4068-B2C2-33FBD95BED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C53578-9085-4B13-B892-BB0439F537E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="29">
   <si>
     <t>RPG/Juegos de rol</t>
   </si>
@@ -91,13 +91,7 @@
     <t>tiempoAcademico</t>
   </si>
   <si>
-    <t>Tablet/Ipad</t>
-  </si>
-  <si>
     <t>Playstore</t>
-  </si>
-  <si>
-    <t>Smartphone</t>
   </si>
   <si>
     <t>Playstore, Tiendas no oficiales o paginas web (Apptoide, mediafire,etc)</t>
@@ -419,9 +413,9 @@
   </sheetPr>
   <dimension ref="A1:N126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D118"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -504,11 +498,11 @@
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="2">
         <v>7</v>
@@ -548,11 +542,11 @@
       <c r="J3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>25</v>
+      <c r="K3" s="1">
+        <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M3" s="2">
         <v>1</v>
@@ -592,11 +586,11 @@
       <c r="J4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
+      <c r="K4" s="1">
+        <v>0</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
@@ -636,11 +630,11 @@
       <c r="J5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>25</v>
+      <c r="K5" s="1">
+        <v>0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M5" s="2">
         <v>2</v>
@@ -680,11 +674,11 @@
       <c r="J6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>25</v>
+      <c r="K6" s="1">
+        <v>0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M6" s="2">
         <v>8</v>
@@ -724,11 +718,11 @@
       <c r="J7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>25</v>
+      <c r="K7" s="1">
+        <v>0</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M7" s="2">
         <v>2</v>
@@ -768,11 +762,11 @@
       <c r="J8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>25</v>
+      <c r="K8" s="1">
+        <v>0</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M8" s="2">
         <v>5</v>
@@ -812,11 +806,11 @@
       <c r="J9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>25</v>
+      <c r="K9" s="1">
+        <v>0</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -856,11 +850,11 @@
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>25</v>
+      <c r="K10" s="1">
+        <v>0</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M10" s="2">
         <v>4</v>
@@ -900,11 +894,11 @@
       <c r="J11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>25</v>
+      <c r="K11" s="1">
+        <v>0</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M11" s="2">
         <v>10</v>
@@ -944,11 +938,11 @@
       <c r="J12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>25</v>
+      <c r="K12" s="1">
+        <v>0</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -988,11 +982,11 @@
       <c r="J13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="M13" s="2">
         <v>7</v>
@@ -1032,11 +1026,11 @@
       <c r="J14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>25</v>
+      <c r="K14" s="1">
+        <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M14" s="2">
         <v>6</v>
@@ -1076,11 +1070,11 @@
       <c r="J15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>25</v>
+      <c r="K15" s="1">
+        <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M15" s="2">
         <v>4</v>
@@ -1120,11 +1114,11 @@
       <c r="J16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>25</v>
+      <c r="K16" s="1">
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M16" s="2">
         <v>10</v>
@@ -1164,11 +1158,11 @@
       <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>25</v>
+      <c r="K17" s="1">
+        <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M17" s="2">
         <v>8</v>
@@ -1208,11 +1202,11 @@
       <c r="J18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>25</v>
+      <c r="K18" s="1">
+        <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M18" s="2">
         <v>4</v>
@@ -1252,11 +1246,11 @@
       <c r="J19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>25</v>
+      <c r="K19" s="1">
+        <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M19" s="2">
         <v>3</v>
@@ -1296,11 +1290,11 @@
       <c r="J20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>25</v>
+      <c r="K20" s="1">
+        <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M20" s="2">
         <v>2</v>
@@ -1340,11 +1334,11 @@
       <c r="J21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>25</v>
+      <c r="K21" s="1">
+        <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M21" s="2">
         <v>20</v>
@@ -1384,11 +1378,11 @@
       <c r="J22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>25</v>
+      <c r="K22" s="1">
+        <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M22" s="2">
         <v>8</v>
@@ -1428,11 +1422,11 @@
       <c r="J23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>25</v>
+      <c r="K23" s="5">
+        <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
@@ -1472,11 +1466,11 @@
       <c r="J24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K24" s="5" t="s">
-        <v>25</v>
+      <c r="K24" s="5">
+        <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M24" s="2">
         <v>4</v>
@@ -1516,11 +1510,11 @@
       <c r="J25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="5" t="s">
-        <v>25</v>
+      <c r="K25" s="5">
+        <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M25" s="2">
         <v>5</v>
@@ -1560,11 +1554,11 @@
       <c r="J26" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K26" s="5" t="s">
-        <v>25</v>
+      <c r="K26" s="5">
+        <v>0</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M26" s="2">
         <v>5</v>
@@ -1604,11 +1598,11 @@
       <c r="J27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K27" s="5" t="s">
-        <v>25</v>
+      <c r="K27" s="5">
+        <v>0</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M27" s="2">
         <v>3</v>
@@ -1648,11 +1642,11 @@
       <c r="J28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>25</v>
+      <c r="K28" s="5">
+        <v>0</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M28" s="2">
         <v>5</v>
@@ -1692,11 +1686,11 @@
       <c r="J29" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>25</v>
+      <c r="K29" s="5">
+        <v>0</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M29" s="2">
         <v>3</v>
@@ -1736,11 +1730,11 @@
       <c r="J30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K30" s="5" t="s">
-        <v>25</v>
+      <c r="K30" s="5">
+        <v>0</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M30" s="2">
         <v>3</v>
@@ -1780,11 +1774,11 @@
       <c r="J31" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K31" s="5" t="s">
-        <v>25</v>
+      <c r="K31" s="5">
+        <v>0</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M31" s="2">
         <v>0</v>
@@ -1824,11 +1818,11 @@
       <c r="J32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>25</v>
+      <c r="K32" s="5">
+        <v>0</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -1868,11 +1862,11 @@
       <c r="J33" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>25</v>
+      <c r="K33" s="5">
+        <v>0</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
@@ -1912,11 +1906,11 @@
       <c r="J34" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>25</v>
+      <c r="K34" s="5">
+        <v>0</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
@@ -1956,11 +1950,11 @@
       <c r="J35" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>25</v>
+      <c r="K35" s="5">
+        <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M35" s="2">
         <v>0</v>
@@ -2000,11 +1994,11 @@
       <c r="J36" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>25</v>
+      <c r="K36" s="5">
+        <v>0</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M36" s="2">
         <v>0</v>
@@ -2044,11 +2038,11 @@
       <c r="J37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K37" s="5" t="s">
-        <v>25</v>
+      <c r="K37" s="5">
+        <v>0</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M37" s="2">
         <v>0</v>
@@ -2088,11 +2082,11 @@
       <c r="J38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K38" s="5" t="s">
-        <v>25</v>
+      <c r="K38" s="5">
+        <v>0</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M38" s="2">
         <v>3</v>
@@ -2132,11 +2126,11 @@
       <c r="J39" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K39" s="5" t="s">
-        <v>25</v>
+      <c r="K39" s="5">
+        <v>0</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M39" s="2">
         <v>0</v>
@@ -2176,11 +2170,11 @@
       <c r="J40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K40" s="5" t="s">
-        <v>25</v>
+      <c r="K40" s="5">
+        <v>0</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -2220,11 +2214,11 @@
       <c r="J41" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>25</v>
+      <c r="K41" s="5">
+        <v>0</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M41" s="2">
         <v>2</v>
@@ -2264,11 +2258,11 @@
       <c r="J42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>25</v>
+      <c r="K42" s="5">
+        <v>0</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M42" s="2">
         <v>0</v>
@@ -2308,11 +2302,11 @@
       <c r="J43" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K43" s="5" t="s">
-        <v>25</v>
+      <c r="K43" s="5">
+        <v>0</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M43" s="2">
         <v>3</v>
@@ -2352,11 +2346,11 @@
       <c r="J44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="5" t="s">
-        <v>25</v>
+      <c r="K44" s="5">
+        <v>0</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M44" s="2">
         <v>4</v>
@@ -2396,11 +2390,11 @@
       <c r="J45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>25</v>
+      <c r="K45" s="5">
+        <v>0</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M45" s="2">
         <v>4</v>
@@ -2440,11 +2434,11 @@
       <c r="J46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K46" s="5" t="s">
-        <v>25</v>
+      <c r="K46" s="5">
+        <v>0</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
@@ -2484,11 +2478,11 @@
       <c r="J47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>25</v>
+      <c r="K47" s="5">
+        <v>0</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M47" s="2">
         <v>0</v>
@@ -2528,11 +2522,11 @@
       <c r="J48" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K48" s="5" t="s">
-        <v>25</v>
+      <c r="K48" s="5">
+        <v>0</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
@@ -2572,11 +2566,11 @@
       <c r="J49" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>25</v>
+      <c r="K49" s="5">
+        <v>0</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M49" s="2">
         <v>0</v>
@@ -2616,11 +2610,11 @@
       <c r="J50" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K50" s="5" t="s">
-        <v>25</v>
+      <c r="K50" s="5">
+        <v>0</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M50" s="2">
         <v>0</v>
@@ -2660,11 +2654,11 @@
       <c r="J51" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K51" s="5" t="s">
-        <v>25</v>
+      <c r="K51" s="5">
+        <v>0</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M51" s="2">
         <v>5</v>
@@ -2704,11 +2698,11 @@
       <c r="J52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K52" s="5" t="s">
-        <v>25</v>
+      <c r="K52" s="5">
+        <v>0</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M52" s="2">
         <v>1</v>
@@ -2748,11 +2742,11 @@
       <c r="J53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>25</v>
+      <c r="K53" s="5">
+        <v>0</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M53" s="2">
         <v>11</v>
@@ -2792,11 +2786,11 @@
       <c r="J54" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K54" s="5" t="s">
-        <v>25</v>
+      <c r="K54" s="5">
+        <v>0</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M54" s="2">
         <v>5</v>
@@ -2836,11 +2830,11 @@
       <c r="J55" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K55" s="5" t="s">
-        <v>25</v>
+      <c r="K55" s="5">
+        <v>0</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M55" s="2">
         <v>3</v>
@@ -2880,11 +2874,11 @@
       <c r="J56" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>25</v>
+      <c r="K56" s="5">
+        <v>0</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M56" s="2">
         <v>0</v>
@@ -2924,11 +2918,11 @@
       <c r="J57" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K57" s="5" t="s">
-        <v>25</v>
+      <c r="K57" s="5">
+        <v>0</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M57" s="2">
         <v>0</v>
@@ -2968,11 +2962,11 @@
       <c r="J58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K58" s="5" t="s">
-        <v>25</v>
+      <c r="K58" s="5">
+        <v>0</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M58" s="2">
         <v>7</v>
@@ -3012,11 +3006,11 @@
       <c r="J59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K59" s="5" t="s">
-        <v>25</v>
+      <c r="K59" s="5">
+        <v>0</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
@@ -3056,11 +3050,11 @@
       <c r="J60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K60" s="5" t="s">
-        <v>25</v>
+      <c r="K60" s="5">
+        <v>0</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M60" s="2">
         <v>0</v>
@@ -3100,11 +3094,11 @@
       <c r="J61" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K61" s="5" t="s">
-        <v>25</v>
+      <c r="K61" s="5">
+        <v>0</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M61" s="2">
         <v>0</v>
@@ -3144,11 +3138,11 @@
       <c r="J62" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K62" s="5" t="s">
-        <v>25</v>
+      <c r="K62" s="5">
+        <v>0</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M62" s="2">
         <v>3</v>
@@ -3188,11 +3182,11 @@
       <c r="J63" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>25</v>
+      <c r="K63" s="5">
+        <v>0</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M63" s="2">
         <v>1</v>
@@ -3232,11 +3226,11 @@
       <c r="J64" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K64" s="1" t="s">
-        <v>25</v>
+      <c r="K64" s="1">
+        <v>0</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M64" s="2">
         <v>8</v>
@@ -3276,11 +3270,11 @@
       <c r="J65" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M65" s="2">
         <v>2</v>
@@ -3320,11 +3314,11 @@
       <c r="J66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M66" s="2">
         <v>2</v>
@@ -3364,11 +3358,11 @@
       <c r="J67" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K67" s="1" t="s">
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M67" s="2">
         <v>9</v>
@@ -3408,11 +3402,11 @@
       <c r="J68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K68" s="1" t="s">
-        <v>25</v>
+      <c r="K68" s="1">
+        <v>0</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M68" s="2">
         <v>10</v>
@@ -3452,11 +3446,11 @@
       <c r="J69" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K69" s="1" t="s">
-        <v>25</v>
+      <c r="K69" s="1">
+        <v>0</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M69" s="2">
         <v>9</v>
@@ -3496,11 +3490,11 @@
       <c r="J70" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K70" s="1" t="s">
-        <v>23</v>
+      <c r="K70" s="1">
+        <v>1</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M70" s="2">
         <v>5</v>
@@ -3540,11 +3534,11 @@
       <c r="J71" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K71" s="1" t="s">
-        <v>25</v>
+      <c r="K71" s="1">
+        <v>0</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M71" s="2">
         <v>2</v>
@@ -3584,11 +3578,11 @@
       <c r="J72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>23</v>
+      <c r="K72" s="1">
+        <v>1</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M72" s="2">
         <v>7</v>
@@ -3628,11 +3622,11 @@
       <c r="J73" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K73" s="1" t="s">
-        <v>23</v>
+      <c r="K73" s="1">
+        <v>1</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M73" s="2">
         <v>3</v>
@@ -3672,11 +3666,11 @@
       <c r="J74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K74" s="1" t="s">
-        <v>23</v>
+      <c r="K74" s="1">
+        <v>1</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M74" s="2">
         <v>7</v>
@@ -3716,11 +3710,11 @@
       <c r="J75" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>23</v>
+      <c r="K75" s="1">
+        <v>1</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M75" s="2">
         <v>6</v>
@@ -3760,11 +3754,11 @@
       <c r="J76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>25</v>
+      <c r="K76" s="1">
+        <v>0</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M76" s="2">
         <v>7</v>
@@ -3804,11 +3798,11 @@
       <c r="J77" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>25</v>
+      <c r="K77" s="1">
+        <v>0</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M77" s="2">
         <v>6</v>
@@ -3848,11 +3842,11 @@
       <c r="J78" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>25</v>
+      <c r="K78" s="1">
+        <v>0</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M78" s="2">
         <v>9</v>
@@ -3892,11 +3886,11 @@
       <c r="J79" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K79" s="1" t="s">
-        <v>25</v>
+      <c r="K79" s="1">
+        <v>0</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M79" s="2">
         <v>8</v>
@@ -3936,11 +3930,11 @@
       <c r="J80" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>23</v>
+      <c r="K80" s="1">
+        <v>1</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M80" s="2">
         <v>7</v>
@@ -3980,11 +3974,11 @@
       <c r="J81" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>25</v>
+      <c r="K81" s="1">
+        <v>0</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81" s="2">
         <v>2</v>
@@ -4024,11 +4018,11 @@
       <c r="J82" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>25</v>
+      <c r="K82" s="1">
+        <v>0</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M82" s="2">
         <v>3</v>
@@ -4102,11 +4096,11 @@
       <c r="J84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K84" s="1" t="s">
-        <v>25</v>
+      <c r="K84" s="1">
+        <v>0</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M84" s="2">
         <v>10</v>
@@ -4146,11 +4140,11 @@
       <c r="J85" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>25</v>
+      <c r="K85" s="1">
+        <v>0</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M85" s="2">
         <v>9</v>
@@ -4190,11 +4184,11 @@
       <c r="J86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>25</v>
+      <c r="K86" s="1">
+        <v>0</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M86" s="2">
         <v>5</v>
@@ -4266,11 +4260,11 @@
       <c r="J88" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K88" s="1" t="s">
-        <v>25</v>
+      <c r="K88" s="1">
+        <v>0</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M88" s="2">
         <v>6</v>
@@ -4342,11 +4336,11 @@
       <c r="J90" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>23</v>
+      <c r="K90" s="1">
+        <v>1</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M90" s="2">
         <v>8</v>
@@ -4386,11 +4380,11 @@
       <c r="J91" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="1" t="s">
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M91" s="2">
         <v>7</v>
@@ -4430,11 +4424,11 @@
       <c r="J92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>25</v>
+      <c r="K92" s="1">
+        <v>0</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M92" s="2">
         <v>7</v>
@@ -4508,11 +4502,11 @@
       <c r="J94" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K94" s="1" t="s">
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L94" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M94" s="2">
         <v>3</v>
@@ -4552,11 +4546,11 @@
       <c r="J95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K95" s="1" t="s">
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M95" s="2">
         <v>3</v>
@@ -4596,11 +4590,11 @@
       <c r="J96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K96" s="1" t="s">
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L96" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M96" s="2">
         <v>10</v>
@@ -4640,11 +4634,11 @@
       <c r="J97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>25</v>
+      <c r="K97" s="1">
+        <v>0</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M97" s="2">
         <v>9</v>
@@ -4684,11 +4678,11 @@
       <c r="J98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K98" s="1" t="s">
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="L98" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="M98" s="2">
         <v>10</v>
@@ -4726,11 +4720,11 @@
       <c r="J99" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="K99" s="1" t="s">
-        <v>25</v>
+      <c r="K99" s="1">
+        <v>0</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M99" s="2">
         <v>6</v>
@@ -4770,11 +4764,11 @@
       <c r="J100" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K100" s="1" t="s">
-        <v>25</v>
+      <c r="K100" s="1">
+        <v>0</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M100" s="2">
         <v>9</v>
@@ -4814,11 +4808,11 @@
       <c r="J101" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K101" s="1" t="s">
-        <v>25</v>
+      <c r="K101" s="1">
+        <v>0</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M101" s="2">
         <v>2</v>
@@ -4858,11 +4852,11 @@
       <c r="J102" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K102" s="1" t="s">
-        <v>25</v>
+      <c r="K102" s="1">
+        <v>0</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M102" s="2">
         <v>4</v>
@@ -4902,11 +4896,11 @@
       <c r="J103" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K103" s="1" t="s">
-        <v>25</v>
+      <c r="K103" s="1">
+        <v>0</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M103" s="2">
         <v>10</v>
@@ -4946,11 +4940,11 @@
       <c r="J104" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K104" s="1" t="s">
-        <v>23</v>
+      <c r="K104" s="1">
+        <v>1</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M104" s="2">
         <v>6</v>
@@ -4990,11 +4984,11 @@
       <c r="J105" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K105" s="1" t="s">
-        <v>25</v>
+      <c r="K105" s="1">
+        <v>0</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M105" s="2">
         <v>10</v>
